--- a/src/resources/excel/Battle_middle.xlsx
+++ b/src/resources/excel/Battle_middle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki0\Documents\compass\sourcetree\BlackJackRPG\src\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799D21D5-AFBE-472D-A4E3-619C619B7634}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5CF87C-71EE-4917-81C3-13BEA00A3005}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{9B4BC5A9-B15C-4087-A2F2-2AE6429AA189}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="2" xr2:uid="{9B4BC5A9-B15C-4087-A2F2-2AE6429AA189}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="1" r:id="rId1"/>
@@ -27,16 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>コンストラクタの引数1</t>
     <rPh sb="8" eb="10">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>programs.example.ClassName</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -193,25 +189,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>programs.controller.TitleController</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cardframe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>キー名</t>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X位置</t>
+  </si>
+  <si>
+    <t>Y位置</t>
+  </si>
+  <si>
+    <t>幅</t>
   </si>
   <si>
     <t>高さ</t>
-    <rPh sb="0" eb="1">
-      <t>タカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>幅</t>
-    <rPh sb="0" eb="1">
-      <t>ハバ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーソル表示変更する？</t>
   </si>
 </sst>
 </file>
@@ -711,7 +716,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95933FD-E51D-48F3-88FE-66E5CFB34F19}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.69921875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -720,61 +727,64 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A975FBA-9EC4-4E49-A1D7-E2DCC4899154}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.69921875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -787,69 +797,218 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>22</v>
+    </row>
+    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>400</v>
+      </c>
+      <c r="D2" s="1">
+        <v>300</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>320</v>
+      </c>
+      <c r="D3" s="1">
+        <v>500</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>480</v>
+      </c>
+      <c r="D4" s="1">
+        <v>500</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>320</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
+        <v>480</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFA0427-2CFE-4D4A-8B06-EDE4E1281BCF}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="36.69921875" style="6" customWidth="1"/>
-    <col min="2" max="4" width="24.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.69921875" style="4" customWidth="1"/>
+    <col min="2" max="5" width="24.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.69921875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/excel/Battle_middle.xlsx
+++ b/src/resources/excel/Battle_middle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki0\Documents\compass\sourcetree\BlackJackRPG\src\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0a6ab32f01e728bc/ドキュメント/BlackJackRPG/src/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5CF87C-71EE-4917-81C3-13BEA00A3005}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{BA5CF87C-71EE-4917-81C3-13BEA00A3005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BB7B361-B484-4E83-B695-3A66CCF825AC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="2" xr2:uid="{9B4BC5A9-B15C-4087-A2F2-2AE6429AA189}"/>
+    <workbookView xWindow="20" yWindow="740" windowWidth="22540" windowHeight="14300" xr2:uid="{9B4BC5A9-B15C-4087-A2F2-2AE6429AA189}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="1" r:id="rId1"/>
@@ -189,10 +189,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>programs.controller.TitleController</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>bg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -217,6 +213,10 @@
   </si>
   <si>
     <t>カーソル表示変更する？</t>
+  </si>
+  <si>
+    <t>programs.battle.BattleSystem</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -418,9 +418,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -458,7 +458,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -564,7 +564,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -706,7 +706,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -716,16 +716,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95933FD-E51D-48F3-88FE-66E5CFB34F19}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.69921875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="74.296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="74.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -766,9 +766,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -786,16 +798,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.69921875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="24.69921875" style="6"/>
-    <col min="2" max="2" width="24.69921875" style="1"/>
-    <col min="3" max="3" width="24.69921875" style="9"/>
-    <col min="4" max="8" width="24.69921875" style="1"/>
-    <col min="9" max="9" width="24.69921875" style="4"/>
+    <col min="1" max="1" width="24.6640625" style="6"/>
+    <col min="2" max="2" width="24.6640625" style="1"/>
+    <col min="3" max="3" width="24.6640625" style="9"/>
+    <col min="4" max="8" width="24.6640625" style="1"/>
+    <col min="9" max="9" width="24.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -824,9 +836,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -853,9 +865,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -882,9 +894,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -911,9 +923,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -940,9 +952,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -980,35 +992,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFA0427-2CFE-4D4A-8B06-EDE4E1281BCF}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="36.69921875" style="6" customWidth="1"/>
-    <col min="2" max="5" width="24.69921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.69921875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" style="6" customWidth="1"/>
+    <col min="2" max="5" width="24.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/excel/Battle_middle.xlsx
+++ b/src/resources/excel/Battle_middle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0a6ab32f01e728bc/ドキュメント/BlackJackRPG/src/resources/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shind\Documents\sourcetree\BlackJackRPG\src\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{BA5CF87C-71EE-4917-81C3-13BEA00A3005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BB7B361-B484-4E83-B695-3A66CCF825AC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297934E5-CD12-4998-B4FB-EF35618A3F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="740" windowWidth="22540" windowHeight="14300" xr2:uid="{9B4BC5A9-B15C-4087-A2F2-2AE6429AA189}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="22540" windowHeight="14300" activeTab="1" xr2:uid="{9B4BC5A9-B15C-4087-A2F2-2AE6429AA189}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>コンストラクタの引数1</t>
     <rPh sb="8" eb="10">
@@ -216,6 +216,14 @@
   </si>
   <si>
     <t>programs.battle.BattleSystem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>button_hit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>button_stand</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -716,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95933FD-E51D-48F3-88FE-66E5CFB34F19}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -792,10 +800,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A975FBA-9EC4-4E49-A1D7-E2DCC4899154}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -978,6 +986,64 @@
         <v>0</v>
       </c>
       <c r="I6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C7" s="9">
+        <v>680</v>
+      </c>
+      <c r="D7" s="1">
+        <v>430</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5001</v>
+      </c>
+      <c r="C8" s="9">
+        <v>680</v>
+      </c>
+      <c r="D8" s="1">
+        <v>540</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
         <v>0</v>
       </c>
     </row>

--- a/src/resources/excel/Battle_middle.xlsx
+++ b/src/resources/excel/Battle_middle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shind\Documents\sourcetree\BlackJackRPG\src\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki0\Documents\compass\sourcetree\BlackJackRPG\src\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297934E5-CD12-4998-B4FB-EF35618A3F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD44BD0-6124-45A8-8512-2865355F8143}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="22540" windowHeight="14300" activeTab="1" xr2:uid="{9B4BC5A9-B15C-4087-A2F2-2AE6429AA189}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="22536" windowHeight="14304" activeTab="2" xr2:uid="{9B4BC5A9-B15C-4087-A2F2-2AE6429AA189}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>コンストラクタの引数1</t>
     <rPh sb="8" eb="10">
@@ -224,6 +224,14 @@
   </si>
   <si>
     <t>button_stand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HitButton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StandButton</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -426,9 +434,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -466,7 +474,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -572,7 +580,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -714,7 +722,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -728,12 +736,12 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="24.69921875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="74.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="74.296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -774,7 +782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -802,20 +810,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A975FBA-9EC4-4E49-A1D7-E2DCC4899154}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="24.69921875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="6"/>
-    <col min="2" max="2" width="24.6640625" style="1"/>
-    <col min="3" max="3" width="24.6640625" style="9"/>
-    <col min="4" max="8" width="24.6640625" style="1"/>
-    <col min="9" max="9" width="24.6640625" style="4"/>
+    <col min="1" max="1" width="24.69921875" style="6"/>
+    <col min="2" max="2" width="24.69921875" style="1"/>
+    <col min="3" max="3" width="24.69921875" style="9"/>
+    <col min="4" max="8" width="24.69921875" style="1"/>
+    <col min="9" max="9" width="24.69921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -844,7 +852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
@@ -873,7 +881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
@@ -902,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
@@ -931,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -960,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
@@ -989,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1018,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1056,20 +1064,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFA0427-2CFE-4D4A-8B06-EDE4E1281BCF}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" style="6" customWidth="1"/>
-    <col min="2" max="5" width="24.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="36.69921875" style="6" customWidth="1"/>
+    <col min="2" max="5" width="24.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.69921875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1087,6 +1095,46 @@
       </c>
       <c r="F1" s="5" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1">
+        <v>565</v>
+      </c>
+      <c r="C2" s="1">
+        <v>380</v>
+      </c>
+      <c r="D2" s="1">
+        <v>230</v>
+      </c>
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
+      <c r="F2" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1">
+        <v>565</v>
+      </c>
+      <c r="C3" s="1">
+        <v>490</v>
+      </c>
+      <c r="D3" s="1">
+        <v>230</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="F3" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/excel/Battle_middle.xlsx
+++ b/src/resources/excel/Battle_middle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki0\Documents\compass\sourcetree\BlackJackRPG\src\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD44BD0-6124-45A8-8512-2865355F8143}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93201E97-1404-4197-83C2-1156AF6B3FE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="22536" windowHeight="14304" activeTab="2" xr2:uid="{9B4BC5A9-B15C-4087-A2F2-2AE6429AA189}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="22536" windowHeight="14304" xr2:uid="{9B4BC5A9-B15C-4087-A2F2-2AE6429AA189}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="1" r:id="rId1"/>
@@ -219,20 +219,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>button_hit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>button_stand</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HitButton</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>StandButton</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResultClick</t>
+  </si>
+  <si>
+    <t>programs.battle.BattleDisplay</t>
   </si>
 </sst>
 </file>
@@ -730,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95933FD-E51D-48F3-88FE-66E5CFB34F19}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.69921875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -797,6 +795,11 @@
       </c>
       <c r="E2">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -810,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A975FBA-9EC4-4E49-A1D7-E2DCC4899154}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.69921875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -998,62 +1001,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C7" s="9">
-        <v>680</v>
-      </c>
-      <c r="D7" s="1">
-        <v>430</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5001</v>
-      </c>
-      <c r="C8" s="9">
-        <v>680</v>
-      </c>
-      <c r="D8" s="1">
-        <v>540</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1064,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFA0427-2CFE-4D4A-8B06-EDE4E1281BCF}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1099,7 +1050,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1">
         <v>565</v>
@@ -1119,7 +1070,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1">
         <v>565</v>
@@ -1135,6 +1086,26 @@
       </c>
       <c r="F3" s="4" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>800</v>
+      </c>
+      <c r="E4" s="1">
+        <v>600</v>
+      </c>
+      <c r="F4" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/excel/Battle_middle.xlsx
+++ b/src/resources/excel/Battle_middle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki0\Documents\compass\sourcetree\BlackJackRPG\src\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93201E97-1404-4197-83C2-1156AF6B3FE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECA2FA8-92A1-461B-864B-F09455EC49FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="22536" windowHeight="14304" xr2:uid="{9B4BC5A9-B15C-4087-A2F2-2AE6429AA189}"/>
   </bookViews>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95933FD-E51D-48F3-88FE-66E5CFB34F19}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.69921875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -795,6 +795,9 @@
       </c>
       <c r="E2">
         <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.45">
